--- a/Asistencia_Reunion_General.xlsx
+++ b/Asistencia_Reunion_General.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\UPATECO\PROGRAMACION_2\MODULO_3\TRABAJOS PRACTICOS\Asistencia_Domingos_Igleisa20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAABEC10-F2FB-4B00-A021-B12524CF6A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21644A40-F4B9-43DB-AFD2-FC5259933A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="1095" windowWidth="25185" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="780" windowWidth="25185" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="02-10-2023" sheetId="1" r:id="rId1"/>
+    <sheet name="08-2-2024" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Nombre</t>
   </si>
@@ -34,15 +34,6 @@
     <t>Observacion</t>
   </si>
   <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Chirinos</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
     <t>Serrano</t>
   </si>
   <si>
@@ -55,9 +46,6 @@
     <t>Pedraza</t>
   </si>
   <si>
-    <t>Ciro</t>
-  </si>
-  <si>
     <t>awaw</t>
   </si>
   <si>
@@ -67,31 +55,40 @@
     <t>peDRAZA</t>
   </si>
   <si>
-    <t>CArlos</t>
-  </si>
-  <si>
     <t>Moeello</t>
   </si>
   <si>
     <t>jajaa</t>
   </si>
   <si>
-    <t>Melina</t>
-  </si>
-  <si>
-    <t>Gaspar</t>
-  </si>
-  <si>
     <t>asasa</t>
   </si>
   <si>
-    <t>humberto</t>
-  </si>
-  <si>
     <t>Camila</t>
   </si>
   <si>
     <t>Mendez</t>
+  </si>
+  <si>
+    <t>Segovia</t>
+  </si>
+  <si>
+    <t>Mel</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Kev</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Carlos</t>
   </si>
 </sst>
 </file>
@@ -430,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,10 +452,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>0.83499999999999996</v>
@@ -466,24 +463,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>0.83568287037037037</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>0.83568287037037037</v>
@@ -491,24 +488,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>0.88494212962962959</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>0.89917824074074071</v>
@@ -516,38 +513,38 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>0.90807870370370369</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>0.90815972222222219</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>0.90825231481481483</v>
@@ -555,10 +552,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>0.90935185185185186</v>
